--- a/www/ig/nos/ValueSet-JDV-J105-EnsembleDiplome-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J105-EnsembleDiplome-RASS.xlsx
@@ -60,13 +60,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.173</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.173</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J105-EnsembleDiplome-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J105-EnsembleDiplome-RASS.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1566">
   <si>
     <t>Property</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -90,7 +90,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -1080,9 +1086,6 @@
     <t>DU ou DIU Ostéopathe d'une université de médecine reconnu par le CNOM</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -1269,13 +1272,13 @@
     <t>DIP350</t>
   </si>
   <si>
-    <t>Brevet de technicien supérieur Analyses de biologie médicale</t>
+    <t>BTS de technicien de laboratoire listé dans l'arrêté du 21/10/1992</t>
   </si>
   <si>
     <t>DIP351</t>
   </si>
   <si>
-    <t>DUT Génie biologique option analyses biologiques et biochimiques</t>
+    <t>DUT Génie biologique option analyses biologiques et biochimiques (avant 2023)</t>
   </si>
   <si>
     <t>DIP352</t>
@@ -1362,7 +1365,7 @@
     <t>DIP365</t>
   </si>
   <si>
-    <t>DUT Biologie option diététique</t>
+    <t>DUT Génie biologique option diététique (avant 2023)</t>
   </si>
   <si>
     <t>DIP366</t>
@@ -1386,7 +1389,7 @@
     <t>DIP369</t>
   </si>
   <si>
-    <t>Bachelor universitaire de technologie Biologie option diététique</t>
+    <t>BUT Génie biologique parcours diététique et nutrition</t>
   </si>
   <si>
     <t>DIP370</t>
@@ -1488,6 +1491,36 @@
     <t>DU Ethique du numérique en santé</t>
   </si>
   <si>
+    <t>DIP408</t>
+  </si>
+  <si>
+    <t>DIU Analyse du mouvement et de la marche</t>
+  </si>
+  <si>
+    <t>DIP410</t>
+  </si>
+  <si>
+    <t>DUT Biologie appliquée option analyses biologiques et biochimiques</t>
+  </si>
+  <si>
+    <t>DIP411</t>
+  </si>
+  <si>
+    <t>BUT Génie biologique parcours biologie médicale et biotechnologie</t>
+  </si>
+  <si>
+    <t>DIP413</t>
+  </si>
+  <si>
+    <t>DU Analyses des milieux biologiques université de Corte</t>
+  </si>
+  <si>
+    <t>DIP416</t>
+  </si>
+  <si>
+    <t>DUT Biologie appliquée option diététique</t>
+  </si>
+  <si>
     <t>CESC01</t>
   </si>
   <si>
@@ -2628,6 +2661,30 @@
     <t>Lauréat de l'Académie Nationale de Médecine</t>
   </si>
   <si>
+    <t>DIP409</t>
+  </si>
+  <si>
+    <t>Diplôme de Qualification en Physique Radiologique et Médicale INSTN (dès 1996)</t>
+  </si>
+  <si>
+    <t>DIP412</t>
+  </si>
+  <si>
+    <t>Diplôme de premier cycle technique biochimie-biologie CNAM</t>
+  </si>
+  <si>
+    <t>DIP414</t>
+  </si>
+  <si>
+    <t>Diplôme de technicienne de laboratoire de biochimie-biologie clinique ESTBB Lyon</t>
+  </si>
+  <si>
+    <t>DIP415</t>
+  </si>
+  <si>
+    <t>Certificat de formation tech supérieur Physicien chimiste ministère travail</t>
+  </si>
+  <si>
     <t>DSCD01</t>
   </si>
   <si>
@@ -3336,7 +3393,7 @@
     <t>DE38</t>
   </si>
   <si>
-    <t>DE Technicien de Laboratoire Médical (DETLM ou DETAB)</t>
+    <t>DE Technicien de Laboratoire Médical (DETLM, DETAB ou DELAM)</t>
   </si>
   <si>
     <t>DE39</t>
@@ -4000,6 +4057,12 @@
   </si>
   <si>
     <t>DES Biologie méd opt thérapie cellulaire-génique</t>
+  </si>
+  <si>
+    <t>DSM412</t>
+  </si>
+  <si>
+    <t>DES Gériatrie</t>
   </si>
   <si>
     <t>DSP04</t>
@@ -4811,7 +4874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4917,20 +4980,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4952,34 +5023,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5001,114 +5072,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5130,34 +5201,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5179,34 +5250,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5228,34 +5299,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5277,34 +5348,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5326,42 +5397,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5383,34 +5454,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5432,34 +5503,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5469,7 +5540,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5481,154 +5552,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>345</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>347</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5650,1306 +5761,1306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6971,434 +7082,434 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -7420,130 +7531,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -7565,666 +7676,666 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>764</v>
+        <v>775</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8345,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8246,410 +8357,442 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>777</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>793</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>805</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>807</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>809</v>
+        <v>820</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>811</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>821</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>823</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>825</v>
+        <v>836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>827</v>
+        <v>838</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>829</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>831</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>833</v>
+        <v>844</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>835</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>837</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>838</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>840</v>
+        <v>851</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>842</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>844</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>846</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>848</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>850</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>852</v>
+        <v>863</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>854</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>858</v>
+        <v>869</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>862</v>
+        <v>873</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>876</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>878</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8671,42 +8814,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>866</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -8728,762 +8871,762 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>871</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>873</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>875</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>881</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>885</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>887</v>
+        <v>906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>889</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>893</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>895</v>
+        <v>914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>899</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>901</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>903</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>907</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>917</v>
+        <v>936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>921</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>925</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>927</v>
+        <v>946</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>931</v>
+        <v>950</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>939</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>941</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>943</v>
+        <v>962</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>946</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>949</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>958</v>
+        <v>977</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>963</v>
+        <v>982</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>965</v>
+        <v>984</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>963</v>
+        <v>982</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>978</v>
+        <v>997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>983</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>988</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>931</v>
+        <v>950</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>993</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>995</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>997</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>999</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>1001</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>1003</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>1005</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>1007</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>1009</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1011</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>1013</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>1015</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>1017</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>1021</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>1023</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>1024</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -9505,346 +9648,346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1026</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1028</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1030</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1032</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1034</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1036</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1038</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1040</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1042</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1044</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1046</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1048</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1050</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1052</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1054</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1056</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1058</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>1060</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1062</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>1064</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>1066</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>1068</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>1070</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>1072</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>1074</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>1076</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>1078</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1080</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>1081</v>
+        <v>1100</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>1038</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>1056</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>1084</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>1085</v>
+        <v>1104</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>1058</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>1087</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>1088</v>
+        <v>1107</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>1089</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>1091</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>1092</v>
+        <v>1111</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>1093</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>1094</v>
+        <v>1113</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>1095</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>1097</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>1098</v>
+        <v>1117</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>1099</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>1101</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>1102</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -9854,7 +9997,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9866,930 +10009,938 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1103</v>
+        <v>1122</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1104</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1105</v>
+        <v>1124</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1106</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1108</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1110</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1112</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1113</v>
+        <v>1132</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1114</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1115</v>
+        <v>1134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1116</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1117</v>
+        <v>1136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1118</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1119</v>
+        <v>1138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1120</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1121</v>
+        <v>1140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1122</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1123</v>
+        <v>1142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1124</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1125</v>
+        <v>1144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1126</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1128</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1129</v>
+        <v>1148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1130</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1131</v>
+        <v>1150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1132</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1133</v>
+        <v>1152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1134</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1135</v>
+        <v>1154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1136</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>1137</v>
+        <v>1156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>1138</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1140</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>1142</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>1144</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>1145</v>
+        <v>1164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>1146</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>1147</v>
+        <v>1166</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>1148</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>1149</v>
+        <v>1168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>1150</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>1151</v>
+        <v>1170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>1152</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>1153</v>
+        <v>1172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>1154</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>1155</v>
+        <v>1174</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>1156</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>1157</v>
+        <v>1176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1158</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>1159</v>
+        <v>1178</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>1160</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>1162</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>1163</v>
+        <v>1182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>1164</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>1165</v>
+        <v>1184</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>1166</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>1167</v>
+        <v>1186</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>1168</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>1170</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>1171</v>
+        <v>1190</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>1172</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>1173</v>
+        <v>1192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>1174</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>1175</v>
+        <v>1194</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>1176</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>1177</v>
+        <v>1196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>1178</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>1180</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>1182</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>1183</v>
+        <v>1202</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>1184</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>1185</v>
+        <v>1204</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>1186</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>1188</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>1190</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>1192</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>1193</v>
+        <v>1212</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>1194</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>1196</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>1197</v>
+        <v>1216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>1198</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>1199</v>
+        <v>1218</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>1200</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>1202</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>1203</v>
+        <v>1222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>1204</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>1205</v>
+        <v>1224</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>1206</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>1207</v>
+        <v>1226</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>1208</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>1209</v>
+        <v>1228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>1210</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>1211</v>
+        <v>1230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>1212</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>1213</v>
+        <v>1232</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>1214</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>1216</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>1217</v>
+        <v>1236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>1218</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>1219</v>
+        <v>1238</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>1220</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>1221</v>
+        <v>1240</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>1222</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>1223</v>
+        <v>1242</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>1224</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>1225</v>
+        <v>1244</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>1226</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>1228</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>1229</v>
+        <v>1248</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>1230</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>1232</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>1233</v>
+        <v>1252</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>1234</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>1236</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>1237</v>
+        <v>1256</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>1238</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>1239</v>
+        <v>1258</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>1240</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>1241</v>
+        <v>1260</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>1242</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>1243</v>
+        <v>1262</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>1244</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>1245</v>
+        <v>1264</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>1246</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>1247</v>
+        <v>1266</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>1248</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>1249</v>
+        <v>1268</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>1250</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>1251</v>
+        <v>1270</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>1252</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>1253</v>
+        <v>1272</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>1254</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>1255</v>
+        <v>1274</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>1256</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>1257</v>
+        <v>1276</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>1258</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>1259</v>
+        <v>1278</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>1260</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>1261</v>
+        <v>1280</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>1262</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>1264</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>1266</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>1268</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>1269</v>
+        <v>1288</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>1270</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>1271</v>
+        <v>1290</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>1272</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>1273</v>
+        <v>1292</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1274</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>1276</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>1278</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>1279</v>
+        <v>1298</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>1280</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>1281</v>
+        <v>1300</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>1282</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>1284</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>1285</v>
+        <v>1304</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>1286</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>1288</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>1289</v>
+        <v>1308</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>1290</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>1292</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>1293</v>
+        <v>1312</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>1294</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>1295</v>
+        <v>1314</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>1296</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>1298</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>1300</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>1302</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>1303</v>
+        <v>1322</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>1304</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>1305</v>
+        <v>1324</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>1306</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>1308</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>1309</v>
+        <v>1328</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>1310</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>1311</v>
+        <v>1330</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>1312</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>1314</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>1315</v>
+        <v>1334</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>1316</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>1317</v>
+        <v>1336</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>1318</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>1319</v>
+        <v>1338</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>1112</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>1320</v>
+        <v>1340</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>1321</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>1322</v>
+        <v>1341</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>1323</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>1324</v>
+        <v>1343</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>1325</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>1326</v>
+        <v>1345</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>1327</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>345</v>
+        <v>1347</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>1328</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -10811,378 +10962,378 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1329</v>
+        <v>1350</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1330</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1331</v>
+        <v>1352</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1332</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1333</v>
+        <v>1354</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1334</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1335</v>
+        <v>1356</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1336</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1338</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1339</v>
+        <v>1360</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1340</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1341</v>
+        <v>1362</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1342</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1343</v>
+        <v>1364</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1344</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1345</v>
+        <v>1366</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1346</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1347</v>
+        <v>1368</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1348</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1349</v>
+        <v>1370</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1350</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1351</v>
+        <v>1372</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1352</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1353</v>
+        <v>1374</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1354</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1355</v>
+        <v>1376</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1356</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1357</v>
+        <v>1378</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1358</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1359</v>
+        <v>1380</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1360</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1361</v>
+        <v>1382</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1362</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>1363</v>
+        <v>1384</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>1364</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>1365</v>
+        <v>1386</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1366</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>1367</v>
+        <v>1388</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>1368</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>1369</v>
+        <v>1390</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>1370</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>1371</v>
+        <v>1392</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>1372</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>1373</v>
+        <v>1394</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>1374</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>1375</v>
+        <v>1396</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>1376</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>1377</v>
+        <v>1398</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>1378</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>1379</v>
+        <v>1400</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>1380</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>1382</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>1383</v>
+        <v>1404</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1384</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>1385</v>
+        <v>1406</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>1386</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>1387</v>
+        <v>1408</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>1388</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>1389</v>
+        <v>1410</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>1390</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>1391</v>
+        <v>1412</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>1392</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>1393</v>
+        <v>1414</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>1395</v>
+        <v>1416</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>1396</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>1398</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>1399</v>
+        <v>1420</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>1400</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>1402</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>1403</v>
+        <v>1424</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>1404</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>1406</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>1407</v>
+        <v>1428</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>1408</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>1409</v>
+        <v>1430</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>1410</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>1411</v>
+        <v>1432</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>1412</v>
+        <v>1433</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>1398</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>1338</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>1414</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -11204,122 +11355,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1415</v>
+        <v>1436</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1416</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1417</v>
+        <v>1438</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1418</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1421</v>
+        <v>1442</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1422</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1423</v>
+        <v>1444</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1424</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1425</v>
+        <v>1446</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1426</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1427</v>
+        <v>1448</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1428</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1429</v>
+        <v>1450</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1430</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1431</v>
+        <v>1452</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1432</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1433</v>
+        <v>1454</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1434</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1435</v>
+        <v>1456</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1436</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1438</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1439</v>
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -11341,98 +11492,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -11454,162 +11605,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1440</v>
+        <v>1461</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1441</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1442</v>
+        <v>1463</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1443</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1445</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1446</v>
+        <v>1467</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1447</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1449</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1451</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1453</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1455</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1457</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1459</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1461</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1463</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1464</v>
+        <v>1485</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1465</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1466</v>
+        <v>1487</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1467</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1468</v>
+        <v>1489</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1469</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1470</v>
+        <v>1491</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1471</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1472</v>
+        <v>1493</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1473</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1474</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -11631,90 +11782,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1476</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1477</v>
+        <v>1498</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1478</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1479</v>
+        <v>1500</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1480</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1481</v>
+        <v>1502</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1482</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1483</v>
+        <v>1504</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1484</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1485</v>
+        <v>1506</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1486</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1487</v>
+        <v>1508</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1488</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1489</v>
+        <v>1510</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1490</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1491</v>
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
@@ -11736,234 +11887,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>1492</v>
+        <v>1513</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1493</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>1494</v>
+        <v>1515</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1495</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>1496</v>
+        <v>1517</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>1497</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1499</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1501</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>1502</v>
+        <v>1523</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1503</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1505</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>1506</v>
+        <v>1527</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1507</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>1508</v>
+        <v>1529</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1509</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>1510</v>
+        <v>1531</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1511</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1513</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>1514</v>
+        <v>1535</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1515</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>1516</v>
+        <v>1537</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>1517</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>1518</v>
+        <v>1539</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>1519</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>1520</v>
+        <v>1541</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>1521</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>1522</v>
+        <v>1543</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>1523</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>1524</v>
+        <v>1545</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>1525</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>1526</v>
+        <v>1547</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>1527</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>1528</v>
+        <v>1549</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>1529</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>1530</v>
+        <v>1551</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>1531</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>1532</v>
+        <v>1553</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>1533</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>1534</v>
+        <v>1555</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>1535</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>1536</v>
+        <v>1557</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>1537</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>1538</v>
+        <v>1559</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>1539</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>1540</v>
+        <v>1561</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>1541</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>1542</v>
+        <v>1563</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>1543</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>1544</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -11985,34 +12136,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12034,130 +12185,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -12179,34 +12330,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12228,34 +12379,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -12277,42 +12428,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12334,50 +12485,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>345</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
